--- a/report/results.xlsx
+++ b/report/results.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18035ed049ad813e/Dokument/KTH/Parallel Programmering/Project/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="11_AD4D7A0C205A6B9A452FA816DF50F6B4683EDF1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A1D1A0B-0B52-4B17-A558-231702413B91}"/>
+  <xr:revisionPtr revIDLastSave="921" documentId="11_AD4D7A0C205A6B9A452FA816DF50F6B4683EDF1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43B6F2CC-5F1D-4E29-AEA7-36C7118422A1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pthreads" sheetId="1" r:id="rId1"/>
-    <sheet name="openmp" sheetId="3" r:id="rId2"/>
-    <sheet name="serial" sheetId="2" r:id="rId3"/>
+    <sheet name="Loglog 1-20k" sheetId="4" r:id="rId1"/>
+    <sheet name="pthreads" sheetId="1" r:id="rId2"/>
+    <sheet name="openmp" sheetId="3" r:id="rId3"/>
+    <sheet name="serial" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Threads</t>
   </si>
@@ -65,7 +66,34 @@
     <t>Time (s)</t>
   </si>
   <si>
-    <t>SERIAL</t>
+    <t>MODIFIED SERIAL</t>
+  </si>
+  <si>
+    <t>INITIAL SERIAL</t>
+  </si>
+  <si>
+    <t>Pthreads</t>
+  </si>
+  <si>
+    <t>Openmp</t>
+  </si>
+  <si>
+    <t>Modified serial</t>
+  </si>
+  <si>
+    <t>Initial serial</t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>modified</t>
   </si>
 </sst>
 </file>
@@ -108,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -116,11 +144,189 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -134,14 +340,101 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -158,6 +451,4924 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Log</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> Log of execution time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Modified Serial</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Loglog 1-20k'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Loglog 1-20k'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1C50-44A8-B135-711AB9702456}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Initial Serial</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Loglog 1-20k'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Loglog 1-20k'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4258899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.22199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>440.88299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>993.64200000000005</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1775.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1C50-44A8-B135-711AB9702456}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pthreads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Loglog 1-20k'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Loglog 1-20k'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.5601999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30405399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59410600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98603499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.28582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1C50-44A8-B135-711AB9702456}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Openmp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Loglog 1-20k'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Loglog 1-20k'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.5430999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39079199999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83606800000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3062400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.63636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1C50-44A8-B135-711AB9702456}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="713500800"/>
+        <c:axId val="713501216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="713500800"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="713501216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="713501216"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="713500800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Pthreads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> speedup compared to optimal speedup</a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Optimal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthreads!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pthreads!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F5FD-42F9-824C-3BD4A3D8F643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthreads!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pthreads!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3113128197939301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1410057024364957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91709082590544044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75489754332636172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F5FD-42F9-824C-3BD4A3D8F643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>5000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthreads!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pthreads!$D$8:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8632940201411592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.504872311827957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6958549247453045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4536143195568663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F5FD-42F9-824C-3BD4A3D8F643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>10000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthreads!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pthreads!$D$13:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9205326995519318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0601216002746332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4693927194444107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5600735103697674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F5FD-42F9-824C-3BD4A3D8F643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>15000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthreads!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pthreads!$D$18:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8796898690208765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1255680927093574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0972133184191559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8747091522192232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F5FD-42F9-824C-3BD4A3D8F643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>20000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthreads!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pthreads!$D$23:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8980106080166743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4393051772077157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6471728508372721</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7813565299165397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F5FD-42F9-824C-3BD4A3D8F643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="896447328"/>
+        <c:axId val="896432352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="896447328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="896432352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="896432352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="896447328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Openmp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> speedup compared to optimal speedup</a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Optimal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthreads!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pthreads!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DA8-4C47-ABFF-3A58F28D020F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthreads!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>openmp!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6673383622118227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1632837848034403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5158503857765848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5861898788838391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0DA8-4C47-ABFF-3A58F28D020F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>5000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthreads!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>openmp!$D$8:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.840017195848431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3299558206522244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3140647592078194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1207072394831981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0DA8-4C47-ABFF-3A58F28D020F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>10000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthreads!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>openmp!$D$13:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8955276365080351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4306006836134095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6474234906335408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.19044874150892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0DA8-4C47-ABFF-3A58F28D020F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>15000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthreads!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pthreads!$D$18:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8796898690208765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1255680927093574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0972133184191559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8747091522192232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0DA8-4C47-ABFF-3A58F28D020F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>20000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthreads!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>openmp!$D$23:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9009386687525971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7436620159031802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8313406084101373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.420190104461617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0DA8-4C47-ABFF-3A58F28D020F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="896447328"/>
+        <c:axId val="896432352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="896447328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="896432352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="896432352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="896447328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>n^2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> scaled compared to execution time of initial serial program</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>n^2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>serial!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>serial!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5454545454545459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.63636363636364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>454.54545454545456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1022.7272727272727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1818.1818181818182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E42F-4610-BCE4-34E6FF8F5F79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Initial</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>serial!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>serial!$C$11:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4258899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.22199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>440.88299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>993.64200000000005</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1775.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E42F-4610-BCE4-34E6FF8F5F79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>n^2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>serial!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>serial!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5454545454545459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.63636363636364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>454.54545454545456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1022.7272727272727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1818.1818181818182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E42F-4610-BCE4-34E6FF8F5F79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Initial</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>serial!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>serial!$C$11:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4258899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.22199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>440.88299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>993.64200000000005</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1775.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E42F-4610-BCE4-34E6FF8F5F79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="887961296"/>
+        <c:axId val="887961712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="887961296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887961712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="887961712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="887961296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t>n scaled compared to execution time of modified serial program</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Modified</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>serial!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>serial!$D$11:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3894-4ACD-BCD2-2B6111A2DE51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>serial!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>serial!$B$11:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3894-4ACD-BCD2-2B6111A2DE51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Modified</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>serial!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>serial!$D$11:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3894-4ACD-BCD2-2B6111A2DE51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>n</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>serial!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>serial!$B$11:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3894-4ACD-BCD2-2B6111A2DE51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="887961296"/>
+        <c:axId val="887961712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="887961296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887961712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="887961712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="887961296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D909E0-0368-4850-8E39-CD55CF20B559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B949888A-6FA0-40DA-BD84-376C38DC28D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49DB4EA5-9D3B-47B2-9D44-628768E6B044}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagram 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7ECC1D-711D-48E5-B52A-388F524F0477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagram 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDAFE5B6-0149-4995-A909-3EBA89465F6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,11 +5633,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DC3AA9-56E7-4426-9399-606D25F5C2B0}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="C2" s="30">
+        <v>4.4258899999999999</v>
+      </c>
+      <c r="D2" s="14">
+        <v>8.5601999999999998E-2</v>
+      </c>
+      <c r="E2" s="14">
+        <v>7.5430999999999998E-2</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>5000</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.61</v>
+      </c>
+      <c r="C3" s="30">
+        <v>109.22199999999999</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.30405399999999999</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.39079199999999997</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1.28</v>
+      </c>
+      <c r="C4" s="30">
+        <v>440.88299999999998</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.59410600000000002</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.83606800000000003</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>15000</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1.96</v>
+      </c>
+      <c r="C5" s="30">
+        <v>993.64200000000005</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.98603499999999999</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1.3062400000000001</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>20000</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2.66</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1775.63</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1.28582</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1.63636</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,821 +5773,891 @@
     <col min="4" max="4" width="10.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="36">
         <v>1000</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="11">
         <v>0.112251</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="12">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="37"/>
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="14">
         <v>8.5601999999999998E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="15">
         <f>C3/C4</f>
         <v>1.3113128197939301</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="37"/>
+      <c r="B5" s="13">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="14">
         <v>9.8378999999999994E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="15">
         <f>C3/C5</f>
         <v>1.1410057024364957</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="37"/>
+      <c r="B6" s="13">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="14">
         <v>0.12239899999999999</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="15">
         <f>C3/C6</f>
         <v>0.91709082590544044</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="37"/>
+      <c r="B7" s="13">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="14">
         <v>0.148697</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="15">
         <f>C3/C7</f>
         <v>0.75489754332636172</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="37">
         <v>5000</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="14">
         <v>0.56654199999999999</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="16">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>5000</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="37"/>
+      <c r="B9" s="13">
         <v>2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="14">
         <v>0.30405399999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="15">
         <f>C8/C9</f>
         <v>1.8632940201411592</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>5000</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="A10" s="37"/>
+      <c r="B10" s="13">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="14">
         <v>0.22617599999999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="15">
         <f>C8/C10</f>
         <v>2.504872311827957</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>5000</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" s="37"/>
+      <c r="B11" s="13">
         <v>6</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="14">
         <v>0.21015300000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="15">
         <f>C8/C11</f>
         <v>2.6958549247453045</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>5000</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="A12" s="37"/>
+      <c r="B12" s="13">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="14">
         <v>0.230901</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="15">
         <f>C8/C12</f>
         <v>2.4536143195568663</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="37">
         <v>10000</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="13">
         <v>1</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="14">
         <v>1.141</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="16">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="A14" s="37"/>
+      <c r="B14" s="13">
         <v>2</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="14">
         <v>0.59410600000000002</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="15">
         <f>C13/C14</f>
         <v>1.9205326995519318</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="A15" s="37"/>
+      <c r="B15" s="13">
         <v>4</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="14">
         <v>0.372861</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="15">
         <f>C13/C15</f>
         <v>3.0601216002746332</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="A16" s="37"/>
+      <c r="B16" s="13">
         <v>6</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="14">
         <v>0.328876</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="15">
         <f>C13/C16</f>
         <v>3.4693927194444107</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="A17" s="37"/>
+      <c r="B17" s="13">
         <v>8</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="14">
         <v>0.32049899999999998</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="15">
         <f>C13/C17</f>
         <v>3.5600735103697674</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="37">
         <v>15000</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="13">
         <v>1</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="14">
         <v>1.85344</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="16">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>15000</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="A19" s="37"/>
+      <c r="B19" s="13">
         <v>2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="14">
         <v>0.98603499999999999</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="15">
         <f>C18/C19</f>
         <v>1.8796898690208765</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>15000</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="A20" s="37"/>
+      <c r="B20" s="13">
         <v>4</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="14">
         <v>0.59299299999999999</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="15">
         <f>C18/C20</f>
         <v>3.1255680927093574</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>15000</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="A21" s="37"/>
+      <c r="B21" s="13">
         <v>6</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="14">
         <v>0.45236599999999999</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="15">
         <f>C18/C21</f>
         <v>4.0972133184191559</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>15000</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="A22" s="37"/>
+      <c r="B22" s="13">
         <v>8</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="14">
         <v>0.47834300000000002</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="15">
         <f>C18/C22</f>
         <v>3.8747091522192232</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="37">
         <v>20000</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="13">
         <v>1</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="14">
         <v>2.4405000000000001</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="16">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>20000</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="A24" s="37"/>
+      <c r="B24" s="13">
         <v>2</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="14">
         <v>1.28582</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="15">
         <f>C23/C24</f>
         <v>1.8980106080166743</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>20000</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="A25" s="37"/>
+      <c r="B25" s="13">
         <v>4</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="14">
         <v>0.70959099999999997</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="15">
         <f>C23/C25</f>
         <v>3.4393051772077157</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>20000</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="A26" s="37"/>
+      <c r="B26" s="13">
         <v>6</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="14">
         <v>0.52515800000000001</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="15">
         <f>C23/C26</f>
         <v>4.6471728508372721</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>20000</v>
-      </c>
-      <c r="B27" s="1">
+    <row r="27" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="38"/>
+      <c r="B27" s="18">
         <v>8</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="19">
         <v>0.51041999999999998</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="20">
         <f>C23/C27</f>
         <v>4.7813565299165397</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBF262A-29DF-4A09-8184-2CEE9EC20063}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="10.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>1000</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="11">
         <v>0.12576899999999999</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="12">
         <f>1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>1000</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="14">
         <v>7.5430999999999998E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="15">
         <f>C3/C4</f>
         <v>1.6673383622118227</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>1000</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="13">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="14">
         <v>3.9759000000000003E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="15">
         <f>C3/C5</f>
         <v>3.1632837848034403</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>1000</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="13">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="14">
         <v>3.5771999999999998E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="15">
         <f>C3/C6</f>
         <v>3.5158503857765848</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>1000</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="13">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="14">
         <v>4.8631000000000001E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="15">
         <f>C3/C7</f>
         <v>2.5861898788838391</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>5000</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="14">
         <v>0.71906400000000004</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="16">
         <f>1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>5000</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="13">
         <v>2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="14">
         <v>0.39079199999999997</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="15">
         <f>C8/C9</f>
         <v>1.840017195848431</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>5000</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="13">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="14">
         <v>0.21593799999999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="15">
         <f>C8/C10</f>
         <v>3.3299558206522244</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>5000</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="13">
         <v>6</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="14">
         <v>0.16667899999999999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="15">
         <f>C8/C11</f>
         <v>4.3140647592078194</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>5000</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="13">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="14">
         <v>0.23041700000000001</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="15">
         <f>C8/C12</f>
         <v>3.1207072394831981</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>10000</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="13">
         <v>1</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="14">
         <v>1.5847899999999999</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="16">
         <f>1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>10000</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="13">
         <v>2</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="14">
         <v>0.83606800000000003</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="15">
         <f>C13/C14</f>
         <v>1.8955276365080351</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>10000</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="13">
         <v>4</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="14">
         <v>0.46195700000000001</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="15">
         <f>C13/C15</f>
         <v>3.4306006836134095</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>10000</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="13">
         <v>6</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="14">
         <v>0.34100399999999997</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="15">
         <f>C13/C16</f>
         <v>4.6474234906335408</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>10000</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="13">
         <v>8</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="14">
         <v>0.378191</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="15">
         <f>C13/C17</f>
         <v>4.19044874150892</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>15000</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="13">
         <v>1</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="14">
         <v>2.5056500000000002</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="16">
         <f>1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>15000</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="13">
         <v>2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="14">
         <v>1.3062400000000001</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="15">
         <f>C18/C19</f>
         <v>1.9182156418422343</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>15000</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="13">
         <v>4</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="14">
         <v>0.68952999999999998</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="15">
         <f>C18/C20</f>
         <v>3.6338520441460127</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>15000</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="13">
         <v>6</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="14">
         <v>0.51710699999999998</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="15">
         <f>C18/C21</f>
         <v>4.8455155316017775</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>15000</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="13">
         <v>8</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="14">
         <v>0.59562000000000004</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="15">
         <f>C18/C22</f>
         <v>4.2067929216614619</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>20000</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="13">
         <v>1</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="14">
         <v>3.1106199999999999</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="16">
         <f>1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>20000</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="13">
         <v>2</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="14">
         <v>1.63636</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="15">
         <f>C23/C24</f>
         <v>1.9009386687525971</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>20000</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="13">
         <v>4</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="14">
         <v>0.83090299999999995</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="15">
         <f>C23/C25</f>
         <v>3.7436620159031802</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>20000</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="13">
         <v>6</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="14">
         <v>0.64384200000000003</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="15">
         <f>C23/C26</f>
         <v>4.8313406084101373</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="17">
         <v>20000</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="18">
         <v>8</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="19">
         <v>0.57389500000000004</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="20">
         <f>C23/C27</f>
         <v>5.420190104461617</v>
       </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1257,115 +6665,272 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E551F0B1-B98E-4DAF-A82B-B3A609F1DF2E}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.77734375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.77734375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="C2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>1000</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="28">
+        <v>4.4258899999999999</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="10">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="E3" s="33">
+        <f>B3/D3</f>
+        <v>40.235363636363637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>5000</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="30">
+        <v>109.22199999999999</v>
+      </c>
+      <c r="C4" s="27">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="13">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="E4" s="15">
+        <f>B4/D4</f>
+        <v>179.05245901639344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>10000</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="30">
+        <v>440.88299999999998</v>
+      </c>
+      <c r="C5" s="27">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="13">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="E5" s="15">
+        <f>B5/D5</f>
+        <v>344.43984374999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>15000</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="30">
+        <v>993.64200000000005</v>
+      </c>
+      <c r="C6" s="27">
+        <v>15000</v>
+      </c>
+      <c r="D6" s="13">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="E6" s="15">
+        <f>B6/D6</f>
+        <v>506.9602040816327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
         <v>20000</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="18">
+        <v>1775.63</v>
+      </c>
+      <c r="C7" s="31">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="18">
         <v>2.66</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="20">
+        <f>B7/D7</f>
+        <v>667.53007518796994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <f>A3*A3/220000</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="B11" s="13">
+        <f>A3/500</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="30">
+        <v>4.4258899999999999</v>
+      </c>
+      <c r="D11" s="13">
+        <f>D3*15</f>
+        <v>1.65</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <f>A4*A4/220000</f>
+        <v>113.63636363636364</v>
+      </c>
+      <c r="B12" s="13">
+        <f t="shared" ref="B12:B15" si="0">A4/500</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="30">
+        <v>109.22199999999999</v>
+      </c>
+      <c r="D12" s="13">
+        <f>D4*15</f>
+        <v>9.15</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <f>A5*A5/220000</f>
+        <v>454.54545454545456</v>
+      </c>
+      <c r="B13" s="13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C13" s="30">
+        <v>440.88299999999998</v>
+      </c>
+      <c r="D13" s="13">
+        <f>D5*15</f>
+        <v>19.2</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <f>A6*A6/220000</f>
+        <v>1022.7272727272727</v>
+      </c>
+      <c r="B14" s="13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C14" s="30">
+        <v>993.64200000000005</v>
+      </c>
+      <c r="D14" s="13">
+        <f>D6*15</f>
+        <v>29.4</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <f>A7*A7/220000</f>
+        <v>1818.1818181818182</v>
+      </c>
+      <c r="B15" s="13">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1775.63</v>
+      </c>
+      <c r="D15" s="13">
+        <f>D7*15</f>
+        <v>39.900000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
